--- a/replication_package/RQ1&RQ3/results/dataset_quantum_code_smells.xlsx
+++ b/replication_package/RQ1&RQ3/results/dataset_quantum_code_smells.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Cross_Sectional_Analysis_of_Quantum_Specific_Code_Smells_in_Open_Source_Software_Communities_RP\replication_package\RQ1&amp;RQ3\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033364DF-B688-42ED-A8F9-69D68BB53335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B6CFD4-A242-4ECD-8EC7-753F096B81EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
